--- a/data/G7/3.xlsx
+++ b/data/G7/3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gatesma/myFile/大学6/数据可视化/teamwork/visualization/data/G6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gatesma/myFile/大学6/数据可视化/teamwork/visualization/data/G7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BB2E8F-EDB2-AB44-84B9-F92B6D2485F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DCD48B-5FDC-CB45-A1E2-4428C1B9B1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16100" xr2:uid="{7E9D8E09-2A21-BF42-9DFB-BA0782A3F0C8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>骑士</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,13 +47,460 @@
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分+2</t>
+  </si>
+  <si>
+    <t>44-49</t>
+  </si>
+  <si>
+    <t>46-49</t>
+  </si>
+  <si>
+    <t>46-52</t>
+  </si>
+  <si>
+    <t>得分+3</t>
+  </si>
+  <si>
+    <t>46-54</t>
+  </si>
+  <si>
+    <t>49-54</t>
+  </si>
+  <si>
+    <t>52-54</t>
+  </si>
+  <si>
+    <t>54-54</t>
+  </si>
+  <si>
+    <t>54-56</t>
+  </si>
+  <si>
+    <t>54-59</t>
+  </si>
+  <si>
+    <t>56-59</t>
+  </si>
+  <si>
+    <t>得分+1</t>
+  </si>
+  <si>
+    <t>58-59</t>
+  </si>
+  <si>
+    <t>60-59</t>
+  </si>
+  <si>
+    <t>62-59</t>
+  </si>
+  <si>
+    <t>65-59</t>
+  </si>
+  <si>
+    <t>65-61</t>
+  </si>
+  <si>
+    <t>68-61</t>
+  </si>
+  <si>
+    <t>68-63</t>
+  </si>
+  <si>
+    <t>70-63</t>
+  </si>
+  <si>
+    <t>70-66</t>
+  </si>
+  <si>
+    <t>71-66</t>
+  </si>
+  <si>
+    <t>71-69</t>
+  </si>
+  <si>
+    <t>71-71</t>
+  </si>
+  <si>
+    <t>73-71</t>
+  </si>
+  <si>
+    <t>73-74</t>
+  </si>
+  <si>
+    <t>75-74</t>
+  </si>
+  <si>
+    <t>75-76</t>
+  </si>
+  <si>
+    <r>
+      <t>J.R.史密斯</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>特里斯坦-汤普森</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>克莱-汤普森</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中三分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>克莱-汤普森</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>J.R.史密斯</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中三分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>凯里-欧文</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>斯蒂芬-库里</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>斯蒂芬-库里</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中三分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>凯文-乐福</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>勒布朗-詹姆斯</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中罚球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>凯里-欧文</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中罚球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>哈里森-巴恩斯</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>凯里-欧文</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中三分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>哈里森-巴恩斯</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中罚球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>特里斯坦-汤普森</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中罚球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>德雷蒙德-格林 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中罚球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>德雷蒙德-格林 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中三分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>肖恩-利文斯顿</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>勒布朗-詹姆斯</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>哈里森-巴恩斯</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中三分</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>安德烈-伊格达拉</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中两分</t>
+    </r>
+  </si>
+  <si>
+    <t>特里斯坦-汤普森命中罚球</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,16 +517,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF009CFF"/>
-      <name val="微软雅黑"/>
+      <color theme="10"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FF009CFF"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -87,11 +535,28 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,30 +580,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,54 +939,907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C4947F-62A4-F343-A40C-8AAE0181553A}">
-  <dimension ref="B1:G3"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="18">
-      <c r="B2" s="3"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="2:7" ht="18">
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8.0787037037037043E-3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>7.7662037037037031E-3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7.6504629629629631E-3</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7.3263888888888892E-3</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7.037037037037037E-3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="18">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>6.6435185185185182E-3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8">
+        <v>6.168981481481481E-3</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="18">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5.7986111111111112E-3</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18">
+      <c r="A17" s="7">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5.3240740740740748E-3</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="18">
+      <c r="A19" s="7">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5.0231481481481481E-3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="18">
+      <c r="A21" s="7">
+        <v>11</v>
+      </c>
+      <c r="B21" s="8">
+        <v>4.6759259259259263E-3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="18">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="18">
+      <c r="A23" s="7">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4.4444444444444444E-3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="18">
+      <c r="A25" s="7">
+        <v>13</v>
+      </c>
+      <c r="B25" s="8">
+        <v>3.3680555555555551E-3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="18">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" ht="18">
+      <c r="A27" s="7">
+        <v>14</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3.1597222222222222E-3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="18">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="18">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="18">
+      <c r="A30" s="7">
+        <v>15</v>
+      </c>
+      <c r="B30" s="8">
+        <v>3.0324074074074073E-3</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="18">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="18">
+      <c r="A33" s="7">
+        <v>17</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2.5115740740740741E-3</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18">
+      <c r="A35" s="7">
+        <v>18</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2.2916666666666667E-3</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="18">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="18">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="18">
+      <c r="A38" s="7">
+        <v>19</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2.1180555555555553E-3</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18">
+      <c r="A41" s="7">
+        <v>20</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1.8750000000000001E-3</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="18">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="18">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="18">
+      <c r="A44" s="7">
+        <v>21</v>
+      </c>
+      <c r="B44" s="8">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="18">
+      <c r="A46" s="7">
+        <v>22</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1.3425925925925925E-3</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" ht="18">
+      <c r="A48" s="1">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="18">
+      <c r="A49" s="7">
+        <v>24</v>
+      </c>
+      <c r="B49" s="8">
+        <v>9.1435185185185185E-4</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18">
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" ht="18">
+      <c r="A51" s="7">
+        <v>25</v>
+      </c>
+      <c r="B51" s="8">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" ht="18">
+      <c r="A53" s="7">
+        <v>26</v>
+      </c>
+      <c r="B53" s="8">
+        <v>4.6296296296296294E-5</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="89">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://stat-nba.com/player/3291.html" xr:uid="{91CB40EB-7D8B-DC45-914C-01ACA4B5E058}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://stat-nba.com/player/3581.html" xr:uid="{D04873CB-E6A1-2941-850E-B862D9015C6F}"/>
+    <hyperlink ref="G5" r:id="rId3" display="http://stat-nba.com/player/3587.html" xr:uid="{8F85FE22-2E1D-7840-BC38-6B09F52AF13B}"/>
+    <hyperlink ref="G7" r:id="rId4" display="http://stat-nba.com/player/3587.html" xr:uid="{395BA6BF-5416-6945-95AB-50222511D395}"/>
+    <hyperlink ref="C8" r:id="rId5" display="http://stat-nba.com/player/3291.html" xr:uid="{0BFB7F8A-1B59-CA45-A329-18D5BFF3F342}"/>
+    <hyperlink ref="C10" r:id="rId6" display="http://stat-nba.com/player/3291.html" xr:uid="{7FE0EA6C-4589-5244-AE1D-7F61062E975E}"/>
+    <hyperlink ref="C12" r:id="rId7" display="http://stat-nba.com/player/1690.html" xr:uid="{C8DC9196-9D73-3F47-8CDF-431D39C09796}"/>
+    <hyperlink ref="G16" r:id="rId8" display="http://stat-nba.com/player/526.html" xr:uid="{8E72E1D2-87B8-9848-B809-C9A9DFB7E9A8}"/>
+    <hyperlink ref="G17" r:id="rId9" display="http://stat-nba.com/player/526.html" xr:uid="{4C606149-B610-1A49-B4C7-6FD57188A898}"/>
+    <hyperlink ref="C19" r:id="rId10" display="http://stat-nba.com/player/2069.html" xr:uid="{2197AE71-7714-124B-AD22-6250CA5FC362}"/>
+    <hyperlink ref="C21" r:id="rId11" display="http://stat-nba.com/player/1862.html" xr:uid="{D84D1CA5-12A7-C341-971D-F771B7F5B861}"/>
+    <hyperlink ref="C22" r:id="rId12" display="http://stat-nba.com/player/1862.html" xr:uid="{C77ED218-C32F-3649-A902-B094C7F9079D}"/>
+    <hyperlink ref="C23" r:id="rId13" display="http://stat-nba.com/player/1690.html" xr:uid="{C40740F0-07FB-2741-B6F5-6CCD266671AF}"/>
+    <hyperlink ref="C25" r:id="rId14" display="http://stat-nba.com/player/1690.html" xr:uid="{6199BE01-12C8-A74C-A1B8-DBB617B36534}"/>
+    <hyperlink ref="C26" r:id="rId15" display="http://stat-nba.com/player/1690.html" xr:uid="{5EEB0F4B-8C06-6940-A6F5-DA2CC7773DFC}"/>
+    <hyperlink ref="C27" r:id="rId16" display="http://stat-nba.com/player/1690.html" xr:uid="{C5A8987D-26F3-1940-8DA9-A5F7B7D8D8C8}"/>
+    <hyperlink ref="C28" r:id="rId17" display="http://stat-nba.com/player/1690.html" xr:uid="{76712354-875B-E540-8BFA-EA017151188D}"/>
+    <hyperlink ref="G30" r:id="rId18" display="http://stat-nba.com/player/4084.html" xr:uid="{41BB94DB-D311-3443-BF97-D399B44D4494}"/>
+    <hyperlink ref="C32" r:id="rId19" display="http://stat-nba.com/player/1690.html" xr:uid="{2ACEB3CF-57E9-3E47-AB31-BD9113290828}"/>
+    <hyperlink ref="G33" r:id="rId20" display="http://stat-nba.com/player/4084.html" xr:uid="{222B530B-C8E2-DC4B-981B-A20037AC3DC6}"/>
+    <hyperlink ref="G34" r:id="rId21" display="http://stat-nba.com/player/4084.html" xr:uid="{1233E172-0733-9641-86C8-6BF169EAEEFE}"/>
+    <hyperlink ref="C35" r:id="rId22" display="http://stat-nba.com/player/3581.html" xr:uid="{3A4407EE-8BDE-004F-9F61-7D971841A91B}"/>
+    <hyperlink ref="C36" r:id="rId23" display="http://stat-nba.com/player/3581.html" xr:uid="{7DFDC7FD-27CB-F148-8EF3-4E0D367558AB}"/>
+    <hyperlink ref="G38" r:id="rId24" display="http://stat-nba.com/player/4085.html" xr:uid="{FB4995CC-3102-E34C-A2EB-96BB2C56D8C7}"/>
+    <hyperlink ref="G39" r:id="rId25" display="http://stat-nba.com/player/4085.html" xr:uid="{17BDA211-4B57-1F42-9D53-71F0C8D5B77C}"/>
+    <hyperlink ref="G40" r:id="rId26" display="http://stat-nba.com/player/4085.html" xr:uid="{E51667CB-5ABF-2A46-9E26-15F864D71897}"/>
+    <hyperlink ref="G44" r:id="rId27" display="http://stat-nba.com/player/4085.html" xr:uid="{F4946DE2-E531-254E-B128-33C4FCA7E2F5}"/>
+    <hyperlink ref="G46" r:id="rId28" display="http://stat-nba.com/player/2102.html" xr:uid="{5D9E86F1-7359-1549-AAF0-DBC53E743097}"/>
+    <hyperlink ref="C48" r:id="rId29" display="http://stat-nba.com/player/1862.html" xr:uid="{0158C58C-70C8-7D4F-B88A-AD66274DBE86}"/>
+    <hyperlink ref="G49" r:id="rId30" display="http://stat-nba.com/player/4084.html" xr:uid="{9D467E55-02E3-5149-823C-69F4285F4329}"/>
+    <hyperlink ref="C51" r:id="rId31" display="http://stat-nba.com/player/3581.html" xr:uid="{64A4B255-FE73-1241-8889-37F541527950}"/>
+    <hyperlink ref="G53" r:id="rId32" display="http://stat-nba.com/player/1701.html" xr:uid="{E028B2C5-1DB3-F24D-8D31-0303B5F85E6C}"/>
+    <hyperlink ref="C42" r:id="rId33" display="http://stat-nba.com/player/3581.html" xr:uid="{02594010-C228-CD45-93C2-D6F51222500D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>